--- a/supporting_files/RCI_gene_context.xlsx
+++ b/supporting_files/RCI_gene_context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Research_General\manuscripts\2020_04_14_Ca_Chx_allophototropha_paper\03_submission_to_Science\03_coauthor_edits\Ca-Chlorohelix-allophototropha-RCI\supporting_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620835EE-8E75-48FF-850C-D2A96FDB279B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE822BF-E570-494E-B48D-4C96573BAD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3775,6 +3775,213 @@
     </r>
   </si>
   <si>
+    <t>HXX08_04340</t>
+  </si>
+  <si>
+    <t>HXX08_04345</t>
+  </si>
+  <si>
+    <t>HXX08_04355</t>
+  </si>
+  <si>
+    <t>HXX08_04360</t>
+  </si>
+  <si>
+    <t>HXX08_04365</t>
+  </si>
+  <si>
+    <t>HXX08_04370</t>
+  </si>
+  <si>
+    <t>HXX08_04375</t>
+  </si>
+  <si>
+    <t>HXX08_04380</t>
+  </si>
+  <si>
+    <t>HXX08_04390</t>
+  </si>
+  <si>
+    <t>HXX08_04400</t>
+  </si>
+  <si>
+    <t>HXX08_04410</t>
+  </si>
+  <si>
+    <t>HXX08_04415</t>
+  </si>
+  <si>
+    <t>HXX08_04420</t>
+  </si>
+  <si>
+    <t>HXX08_04425</t>
+  </si>
+  <si>
+    <t>HXX08_04430</t>
+  </si>
+  <si>
+    <t>HXX08_04435</t>
+  </si>
+  <si>
+    <t>HXX08_04440</t>
+  </si>
+  <si>
+    <t>HXX08_04445</t>
+  </si>
+  <si>
+    <t>HXX08_04450</t>
+  </si>
+  <si>
+    <t>HXX08_04455</t>
+  </si>
+  <si>
+    <t>HXX08_04460</t>
+  </si>
+  <si>
+    <t>HXX08_04465</t>
+  </si>
+  <si>
+    <t>HXX08_04470</t>
+  </si>
+  <si>
+    <t>HXX08_04480</t>
+  </si>
+  <si>
+    <t>HXX08_04485</t>
+  </si>
+  <si>
+    <t>HXX08_04490</t>
+  </si>
+  <si>
+    <t>HXX08_04495</t>
+  </si>
+  <si>
+    <t>HXX08_04500</t>
+  </si>
+  <si>
+    <t>HXX08_04510</t>
+  </si>
+  <si>
+    <t>HXX08_04515</t>
+  </si>
+  <si>
+    <t>HXX08_04520</t>
+  </si>
+  <si>
+    <t>HXX08_04525</t>
+  </si>
+  <si>
+    <t>HXX08_04530</t>
+  </si>
+  <si>
+    <t>HXX08_04535</t>
+  </si>
+  <si>
+    <t>HXX08_04540</t>
+  </si>
+  <si>
+    <t>HXX20_00715</t>
+  </si>
+  <si>
+    <t>HXX20_00725</t>
+  </si>
+  <si>
+    <t>HXX20_00730</t>
+  </si>
+  <si>
+    <t>HXX20_00735</t>
+  </si>
+  <si>
+    <t>HXX20_00740</t>
+  </si>
+  <si>
+    <t>HXX20_00745</t>
+  </si>
+  <si>
+    <t>HXX20_00750</t>
+  </si>
+  <si>
+    <t>HXX20_00755</t>
+  </si>
+  <si>
+    <t>HXX20_00760</t>
+  </si>
+  <si>
+    <t>HXX20_00775</t>
+  </si>
+  <si>
+    <t>HXX20_00780</t>
+  </si>
+  <si>
+    <t>HXX20_00785</t>
+  </si>
+  <si>
+    <t>HXX20_00790</t>
+  </si>
+  <si>
+    <t>HXX20_00795</t>
+  </si>
+  <si>
+    <t>HXX20_00800</t>
+  </si>
+  <si>
+    <t>HXX20_00805</t>
+  </si>
+  <si>
+    <t>HXX20_00815</t>
+  </si>
+  <si>
+    <t>HXX20_00820</t>
+  </si>
+  <si>
+    <t>HXX20_00830</t>
+  </si>
+  <si>
+    <t>HXX20_00835</t>
+  </si>
+  <si>
+    <t>HXX20_00845</t>
+  </si>
+  <si>
+    <t>HXX20_00855</t>
+  </si>
+  <si>
+    <t>HXX20_00860</t>
+  </si>
+  <si>
+    <t>HXX20_00865</t>
+  </si>
+  <si>
+    <t>HXX20_00870</t>
+  </si>
+  <si>
+    <t>HXX20_00875</t>
+  </si>
+  <si>
+    <t>HXX20_00880</t>
+  </si>
+  <si>
+    <t>HXX20_00885</t>
+  </si>
+  <si>
+    <t>HXX20_00900</t>
+  </si>
+  <si>
+    <t>HXX20_00905</t>
+  </si>
+  <si>
+    <t>HXX20_00915</t>
+  </si>
+  <si>
+    <t>HXX20_00920</t>
+  </si>
+  <si>
+    <t>Updated Query ID (GenBank locus tag)</t>
+  </si>
+  <si>
+    <t>Original Query ID (prokka annotations)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Worksheet 2 | Top five BLASTP hits for predicted open reading frames of 20 genes up/downstream of the </t>
     </r>
@@ -3822,215 +4029,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Chloroheliales' bin L227-5C</t>
+      <t>. Chloroheliaceae' bin L227-5C</t>
     </r>
-  </si>
-  <si>
-    <t>HXX08_04340</t>
-  </si>
-  <si>
-    <t>HXX08_04345</t>
-  </si>
-  <si>
-    <t>HXX08_04355</t>
-  </si>
-  <si>
-    <t>HXX08_04360</t>
-  </si>
-  <si>
-    <t>HXX08_04365</t>
-  </si>
-  <si>
-    <t>HXX08_04370</t>
-  </si>
-  <si>
-    <t>HXX08_04375</t>
-  </si>
-  <si>
-    <t>HXX08_04380</t>
-  </si>
-  <si>
-    <t>HXX08_04390</t>
-  </si>
-  <si>
-    <t>HXX08_04400</t>
-  </si>
-  <si>
-    <t>HXX08_04410</t>
-  </si>
-  <si>
-    <t>HXX08_04415</t>
-  </si>
-  <si>
-    <t>HXX08_04420</t>
-  </si>
-  <si>
-    <t>HXX08_04425</t>
-  </si>
-  <si>
-    <t>HXX08_04430</t>
-  </si>
-  <si>
-    <t>HXX08_04435</t>
-  </si>
-  <si>
-    <t>HXX08_04440</t>
-  </si>
-  <si>
-    <t>HXX08_04445</t>
-  </si>
-  <si>
-    <t>HXX08_04450</t>
-  </si>
-  <si>
-    <t>HXX08_04455</t>
-  </si>
-  <si>
-    <t>HXX08_04460</t>
-  </si>
-  <si>
-    <t>HXX08_04465</t>
-  </si>
-  <si>
-    <t>HXX08_04470</t>
-  </si>
-  <si>
-    <t>HXX08_04480</t>
-  </si>
-  <si>
-    <t>HXX08_04485</t>
-  </si>
-  <si>
-    <t>HXX08_04490</t>
-  </si>
-  <si>
-    <t>HXX08_04495</t>
-  </si>
-  <si>
-    <t>HXX08_04500</t>
-  </si>
-  <si>
-    <t>HXX08_04510</t>
-  </si>
-  <si>
-    <t>HXX08_04515</t>
-  </si>
-  <si>
-    <t>HXX08_04520</t>
-  </si>
-  <si>
-    <t>HXX08_04525</t>
-  </si>
-  <si>
-    <t>HXX08_04530</t>
-  </si>
-  <si>
-    <t>HXX08_04535</t>
-  </si>
-  <si>
-    <t>HXX08_04540</t>
-  </si>
-  <si>
-    <t>HXX20_00715</t>
-  </si>
-  <si>
-    <t>HXX20_00725</t>
-  </si>
-  <si>
-    <t>HXX20_00730</t>
-  </si>
-  <si>
-    <t>HXX20_00735</t>
-  </si>
-  <si>
-    <t>HXX20_00740</t>
-  </si>
-  <si>
-    <t>HXX20_00745</t>
-  </si>
-  <si>
-    <t>HXX20_00750</t>
-  </si>
-  <si>
-    <t>HXX20_00755</t>
-  </si>
-  <si>
-    <t>HXX20_00760</t>
-  </si>
-  <si>
-    <t>HXX20_00775</t>
-  </si>
-  <si>
-    <t>HXX20_00780</t>
-  </si>
-  <si>
-    <t>HXX20_00785</t>
-  </si>
-  <si>
-    <t>HXX20_00790</t>
-  </si>
-  <si>
-    <t>HXX20_00795</t>
-  </si>
-  <si>
-    <t>HXX20_00800</t>
-  </si>
-  <si>
-    <t>HXX20_00805</t>
-  </si>
-  <si>
-    <t>HXX20_00815</t>
-  </si>
-  <si>
-    <t>HXX20_00820</t>
-  </si>
-  <si>
-    <t>HXX20_00830</t>
-  </si>
-  <si>
-    <t>HXX20_00835</t>
-  </si>
-  <si>
-    <t>HXX20_00845</t>
-  </si>
-  <si>
-    <t>HXX20_00855</t>
-  </si>
-  <si>
-    <t>HXX20_00860</t>
-  </si>
-  <si>
-    <t>HXX20_00865</t>
-  </si>
-  <si>
-    <t>HXX20_00870</t>
-  </si>
-  <si>
-    <t>HXX20_00875</t>
-  </si>
-  <si>
-    <t>HXX20_00880</t>
-  </si>
-  <si>
-    <t>HXX20_00885</t>
-  </si>
-  <si>
-    <t>HXX20_00900</t>
-  </si>
-  <si>
-    <t>HXX20_00905</t>
-  </si>
-  <si>
-    <t>HXX20_00915</t>
-  </si>
-  <si>
-    <t>HXX20_00920</t>
-  </si>
-  <si>
-    <t>Updated Query ID (GenBank locus tag)</t>
-  </si>
-  <si>
-    <t>Original Query ID (prokka annotations)</t>
   </si>
 </sst>
 </file>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1218</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -5203,7 +5203,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -5244,7 +5244,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -5291,7 +5291,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -5338,7 +5338,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -5385,7 +5385,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -5432,7 +5432,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -5479,7 +5479,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
@@ -5520,7 +5520,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -5567,7 +5567,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -5614,7 +5614,7 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -5661,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C19" t="s">
         <v>78</v>
@@ -5708,7 +5708,7 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
@@ -5755,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -5802,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -5849,7 +5849,7 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C23" t="s">
         <v>96</v>
@@ -5896,7 +5896,7 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C24" t="s">
         <v>100</v>
@@ -5943,7 +5943,7 @@
         <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C25" t="s">
         <v>102</v>
@@ -5990,7 +5990,7 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
@@ -6031,7 +6031,7 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C27" t="s">
         <v>108</v>
@@ -6078,7 +6078,7 @@
         <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C28" t="s">
         <v>116</v>
@@ -6125,7 +6125,7 @@
         <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C29" t="s">
         <v>122</v>
@@ -6172,7 +6172,7 @@
         <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C30" t="s">
         <v>124</v>
@@ -6216,7 +6216,7 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C31" t="s">
         <v>127</v>
@@ -6263,7 +6263,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C32" t="s">
         <v>134</v>
@@ -6310,7 +6310,7 @@
         <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C33" t="s">
         <v>139</v>
@@ -6357,7 +6357,7 @@
         <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C34" t="s">
         <v>141</v>
@@ -6404,7 +6404,7 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C35" t="s">
         <v>143</v>
@@ -6436,7 +6436,7 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C36" t="s">
         <v>146</v>
@@ -6483,7 +6483,7 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C37" t="s">
         <v>153</v>
@@ -6530,7 +6530,7 @@
         <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C38" t="s">
         <v>157</v>
@@ -6577,7 +6577,7 @@
         <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C39" t="s">
         <v>162</v>
@@ -6624,7 +6624,7 @@
         <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -6671,7 +6671,7 @@
         <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C41" t="s">
         <v>168</v>
@@ -6715,7 +6715,7 @@
         <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C42" t="s">
         <v>170</v>
@@ -6762,7 +6762,7 @@
         <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C43" t="s">
         <v>178</v>
@@ -6809,7 +6809,7 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C44" t="s">
         <v>184</v>
@@ -6856,7 +6856,7 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C45" t="s">
         <v>188</v>
@@ -6903,7 +6903,7 @@
         <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C46" t="s">
         <v>195</v>
@@ -6950,7 +6950,7 @@
         <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C47" t="s">
         <v>200</v>
@@ -6997,7 +6997,7 @@
         <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C48" t="s">
         <v>209</v>
@@ -7044,7 +7044,7 @@
         <v>208</v>
       </c>
       <c r="B49" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C49" t="s">
         <v>216</v>
@@ -7091,7 +7091,7 @@
         <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C50" t="s">
         <v>222</v>
@@ -7135,7 +7135,7 @@
         <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C51" t="s">
         <v>224</v>
@@ -7182,7 +7182,7 @@
         <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C52" t="s">
         <v>226</v>
@@ -7229,7 +7229,7 @@
         <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C53" t="s">
         <v>229</v>
@@ -7276,7 +7276,7 @@
         <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C54" t="s">
         <v>236</v>
@@ -7323,7 +7323,7 @@
         <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C55" t="s">
         <v>239</v>
@@ -7370,7 +7370,7 @@
         <v>228</v>
       </c>
       <c r="B56" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C56" t="s">
         <v>240</v>
@@ -7417,7 +7417,7 @@
         <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C57" t="s">
         <v>243</v>
@@ -7464,7 +7464,7 @@
         <v>244</v>
       </c>
       <c r="B58" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C58" t="s">
         <v>245</v>
@@ -7511,7 +7511,7 @@
         <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C59" t="s">
         <v>247</v>
@@ -7558,7 +7558,7 @@
         <v>244</v>
       </c>
       <c r="B60" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C60" t="s">
         <v>249</v>
@@ -7605,7 +7605,7 @@
         <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C61" t="s">
         <v>251</v>
@@ -7652,7 +7652,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C62" t="s">
         <v>254</v>
@@ -7699,7 +7699,7 @@
         <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C63" t="s">
         <v>257</v>
@@ -7746,7 +7746,7 @@
         <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C64" t="s">
         <v>262</v>
@@ -7793,7 +7793,7 @@
         <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C65" t="s">
         <v>266</v>
@@ -7840,7 +7840,7 @@
         <v>256</v>
       </c>
       <c r="B66" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C66" t="s">
         <v>269</v>
@@ -7887,7 +7887,7 @@
         <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C67" t="s">
         <v>270</v>
@@ -7934,7 +7934,7 @@
         <v>272</v>
       </c>
       <c r="B68" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C68" t="s">
         <v>273</v>
@@ -7981,7 +7981,7 @@
         <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C69" t="s">
         <v>279</v>
@@ -8028,7 +8028,7 @@
         <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C70" t="s">
         <v>283</v>
@@ -8075,7 +8075,7 @@
         <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C71" t="s">
         <v>291</v>
@@ -8122,7 +8122,7 @@
         <v>272</v>
       </c>
       <c r="B72" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C72" t="s">
         <v>298</v>
@@ -8169,7 +8169,7 @@
         <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C73" t="s">
         <v>301</v>
@@ -8213,7 +8213,7 @@
         <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C74" t="s">
         <v>308</v>
@@ -8260,7 +8260,7 @@
         <v>300</v>
       </c>
       <c r="B75" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C75" t="s">
         <v>310</v>
@@ -8307,7 +8307,7 @@
         <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C76" t="s">
         <v>316</v>
@@ -8354,7 +8354,7 @@
         <v>300</v>
       </c>
       <c r="B77" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C77" t="s">
         <v>320</v>
@@ -8401,7 +8401,7 @@
         <v>324</v>
       </c>
       <c r="B78" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C78" t="s">
         <v>325</v>
@@ -8448,7 +8448,7 @@
         <v>324</v>
       </c>
       <c r="B79" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C79" t="s">
         <v>327</v>
@@ -8495,7 +8495,7 @@
         <v>324</v>
       </c>
       <c r="B80" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C80" t="s">
         <v>331</v>
@@ -8542,7 +8542,7 @@
         <v>324</v>
       </c>
       <c r="B81" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C81" t="s">
         <v>332</v>
@@ -8589,7 +8589,7 @@
         <v>336</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>337</v>
@@ -8636,7 +8636,7 @@
         <v>336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>345</v>
@@ -8683,7 +8683,7 @@
         <v>336</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>349</v>
@@ -8730,7 +8730,7 @@
         <v>336</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>353</v>
@@ -8777,7 +8777,7 @@
         <v>336</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>356</v>
@@ -8824,7 +8824,7 @@
         <v>359</v>
       </c>
       <c r="B87" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C87" t="s">
         <v>360</v>
@@ -8871,7 +8871,7 @@
         <v>359</v>
       </c>
       <c r="B88" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C88" t="s">
         <v>369</v>
@@ -8918,7 +8918,7 @@
         <v>359</v>
       </c>
       <c r="B89" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C89" t="s">
         <v>373</v>
@@ -8965,7 +8965,7 @@
         <v>359</v>
       </c>
       <c r="B90" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C90" t="s">
         <v>379</v>
@@ -9012,7 +9012,7 @@
         <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C91" t="s">
         <v>382</v>
@@ -9059,7 +9059,7 @@
         <v>386</v>
       </c>
       <c r="B92" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C92" t="s">
         <v>387</v>
@@ -9106,7 +9106,7 @@
         <v>386</v>
       </c>
       <c r="B93" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C93" t="s">
         <v>389</v>
@@ -9153,7 +9153,7 @@
         <v>386</v>
       </c>
       <c r="B94" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C94" t="s">
         <v>390</v>
@@ -9200,7 +9200,7 @@
         <v>386</v>
       </c>
       <c r="B95" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C95" t="s">
         <v>391</v>
@@ -9247,7 +9247,7 @@
         <v>386</v>
       </c>
       <c r="B96" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C96" t="s">
         <v>393</v>
@@ -9294,7 +9294,7 @@
         <v>398</v>
       </c>
       <c r="B97" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C97" t="s">
         <v>399</v>
@@ -9335,7 +9335,7 @@
         <v>398</v>
       </c>
       <c r="B98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C98" t="s">
         <v>401</v>
@@ -9382,7 +9382,7 @@
         <v>398</v>
       </c>
       <c r="B99" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C99" t="s">
         <v>403</v>
@@ -9429,7 +9429,7 @@
         <v>398</v>
       </c>
       <c r="B100" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C100" t="s">
         <v>405</v>
@@ -9476,7 +9476,7 @@
         <v>398</v>
       </c>
       <c r="B101" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C101" t="s">
         <v>407</v>
@@ -9523,7 +9523,7 @@
         <v>413</v>
       </c>
       <c r="B102" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C102" t="s">
         <v>414</v>
@@ -9570,7 +9570,7 @@
         <v>413</v>
       </c>
       <c r="B103" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C103" t="s">
         <v>421</v>
@@ -9617,7 +9617,7 @@
         <v>413</v>
       </c>
       <c r="B104" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C104" t="s">
         <v>425</v>
@@ -9664,7 +9664,7 @@
         <v>413</v>
       </c>
       <c r="B105" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C105" t="s">
         <v>429</v>
@@ -9711,7 +9711,7 @@
         <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C106" t="s">
         <v>433</v>
@@ -9758,7 +9758,7 @@
         <v>437</v>
       </c>
       <c r="B107" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C107" t="s">
         <v>438</v>
@@ -9805,7 +9805,7 @@
         <v>437</v>
       </c>
       <c r="B108" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C108" t="s">
         <v>439</v>
@@ -9852,7 +9852,7 @@
         <v>437</v>
       </c>
       <c r="B109" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C109" t="s">
         <v>441</v>
@@ -9899,7 +9899,7 @@
         <v>437</v>
       </c>
       <c r="B110" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C110" t="s">
         <v>442</v>
@@ -9946,7 +9946,7 @@
         <v>437</v>
       </c>
       <c r="B111" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C111" t="s">
         <v>447</v>
@@ -9987,7 +9987,7 @@
         <v>451</v>
       </c>
       <c r="B112" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C112" t="s">
         <v>452</v>
@@ -10031,7 +10031,7 @@
         <v>451</v>
       </c>
       <c r="B113" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C113" t="s">
         <v>454</v>
@@ -10078,7 +10078,7 @@
         <v>451</v>
       </c>
       <c r="B114" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C114" t="s">
         <v>456</v>
@@ -10119,7 +10119,7 @@
         <v>451</v>
       </c>
       <c r="B115" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C115" t="s">
         <v>458</v>
@@ -10166,7 +10166,7 @@
         <v>451</v>
       </c>
       <c r="B116" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C116" t="s">
         <v>460</v>
@@ -10213,7 +10213,7 @@
         <v>463</v>
       </c>
       <c r="B117" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C117" t="s">
         <v>464</v>
@@ -10260,7 +10260,7 @@
         <v>463</v>
       </c>
       <c r="B118" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C118" t="s">
         <v>471</v>
@@ -10307,7 +10307,7 @@
         <v>463</v>
       </c>
       <c r="B119" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C119" t="s">
         <v>474</v>
@@ -10354,7 +10354,7 @@
         <v>463</v>
       </c>
       <c r="B120" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C120" t="s">
         <v>477</v>
@@ -10401,7 +10401,7 @@
         <v>463</v>
       </c>
       <c r="B121" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C121" t="s">
         <v>480</v>
@@ -10448,7 +10448,7 @@
         <v>483</v>
       </c>
       <c r="B122" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C122" t="s">
         <v>484</v>
@@ -10495,7 +10495,7 @@
         <v>483</v>
       </c>
       <c r="B123" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C123" t="s">
         <v>487</v>
@@ -10542,7 +10542,7 @@
         <v>483</v>
       </c>
       <c r="B124" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C124" t="s">
         <v>493</v>
@@ -10589,7 +10589,7 @@
         <v>483</v>
       </c>
       <c r="B125" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C125" t="s">
         <v>496</v>
@@ -10636,7 +10636,7 @@
         <v>483</v>
       </c>
       <c r="B126" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C126" t="s">
         <v>499</v>
@@ -10683,7 +10683,7 @@
         <v>502</v>
       </c>
       <c r="B127" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C127" t="s">
         <v>503</v>
@@ -10730,7 +10730,7 @@
         <v>502</v>
       </c>
       <c r="B128" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C128" t="s">
         <v>506</v>
@@ -10777,7 +10777,7 @@
         <v>502</v>
       </c>
       <c r="B129" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C129" t="s">
         <v>508</v>
@@ -10824,7 +10824,7 @@
         <v>502</v>
       </c>
       <c r="B130" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C130" t="s">
         <v>510</v>
@@ -10871,7 +10871,7 @@
         <v>502</v>
       </c>
       <c r="B131" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C131" t="s">
         <v>512</v>
@@ -10918,7 +10918,7 @@
         <v>514</v>
       </c>
       <c r="B132" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C132" t="s">
         <v>515</v>
@@ -10959,7 +10959,7 @@
         <v>514</v>
       </c>
       <c r="B133" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C133" t="s">
         <v>518</v>
@@ -11006,7 +11006,7 @@
         <v>514</v>
       </c>
       <c r="B134" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C134" t="s">
         <v>520</v>
@@ -11053,7 +11053,7 @@
         <v>514</v>
       </c>
       <c r="B135" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C135" t="s">
         <v>522</v>
@@ -11100,7 +11100,7 @@
         <v>514</v>
       </c>
       <c r="B136" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C136" t="s">
         <v>527</v>
@@ -11147,7 +11147,7 @@
         <v>530</v>
       </c>
       <c r="B137" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C137" t="s">
         <v>531</v>
@@ -11194,7 +11194,7 @@
         <v>530</v>
       </c>
       <c r="B138" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C138" t="s">
         <v>533</v>
@@ -11241,7 +11241,7 @@
         <v>530</v>
       </c>
       <c r="B139" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C139" t="s">
         <v>535</v>
@@ -11285,7 +11285,7 @@
         <v>530</v>
       </c>
       <c r="B140" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C140" t="s">
         <v>542</v>
@@ -11332,7 +11332,7 @@
         <v>530</v>
       </c>
       <c r="B141" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C141" t="s">
         <v>544</v>
@@ -11379,7 +11379,7 @@
         <v>546</v>
       </c>
       <c r="B142" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C142" t="s">
         <v>547</v>
@@ -11423,7 +11423,7 @@
         <v>546</v>
       </c>
       <c r="B143" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C143" t="s">
         <v>551</v>
@@ -11470,7 +11470,7 @@
         <v>546</v>
       </c>
       <c r="B144" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C144" t="s">
         <v>559</v>
@@ -11517,7 +11517,7 @@
         <v>546</v>
       </c>
       <c r="B145" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C145" t="s">
         <v>565</v>
@@ -11564,7 +11564,7 @@
         <v>546</v>
       </c>
       <c r="B146" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C146" t="s">
         <v>566</v>
@@ -11608,7 +11608,7 @@
         <v>571</v>
       </c>
       <c r="B147" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C147" t="s">
         <v>572</v>
@@ -11655,7 +11655,7 @@
         <v>571</v>
       </c>
       <c r="B148" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C148" t="s">
         <v>574</v>
@@ -11699,7 +11699,7 @@
         <v>571</v>
       </c>
       <c r="B149" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C149" t="s">
         <v>581</v>
@@ -11746,7 +11746,7 @@
         <v>571</v>
       </c>
       <c r="B150" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C150" t="s">
         <v>585</v>
@@ -11784,7 +11784,7 @@
         <v>571</v>
       </c>
       <c r="B151" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C151" t="s">
         <v>590</v>
@@ -11831,7 +11831,7 @@
         <v>594</v>
       </c>
       <c r="B152" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C152" t="s">
         <v>595</v>
@@ -11869,7 +11869,7 @@
         <v>594</v>
       </c>
       <c r="B153" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C153" t="s">
         <v>600</v>
@@ -11913,7 +11913,7 @@
         <v>594</v>
       </c>
       <c r="B154" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C154" t="s">
         <v>606</v>
@@ -11957,7 +11957,7 @@
         <v>594</v>
       </c>
       <c r="B155" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C155" t="s">
         <v>609</v>
@@ -12001,7 +12001,7 @@
         <v>594</v>
       </c>
       <c r="B156" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C156" t="s">
         <v>615</v>
@@ -12036,7 +12036,7 @@
         <v>618</v>
       </c>
       <c r="B157" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C157" t="s">
         <v>619</v>
@@ -12083,7 +12083,7 @@
         <v>618</v>
       </c>
       <c r="B158" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C158" t="s">
         <v>621</v>
@@ -12130,7 +12130,7 @@
         <v>618</v>
       </c>
       <c r="B159" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C159" t="s">
         <v>623</v>
@@ -12174,7 +12174,7 @@
         <v>618</v>
       </c>
       <c r="B160" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C160" t="s">
         <v>628</v>
@@ -12221,7 +12221,7 @@
         <v>618</v>
       </c>
       <c r="B161" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C161" t="s">
         <v>630</v>
@@ -12265,7 +12265,7 @@
         <v>635</v>
       </c>
       <c r="B162" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C162" t="s">
         <v>636</v>
@@ -12312,7 +12312,7 @@
         <v>635</v>
       </c>
       <c r="B163" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C163" t="s">
         <v>643</v>
@@ -12359,7 +12359,7 @@
         <v>635</v>
       </c>
       <c r="B164" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C164" t="s">
         <v>646</v>
@@ -12406,7 +12406,7 @@
         <v>635</v>
       </c>
       <c r="B165" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C165" t="s">
         <v>649</v>
@@ -12453,7 +12453,7 @@
         <v>635</v>
       </c>
       <c r="B166" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C166" t="s">
         <v>652</v>
@@ -12500,7 +12500,7 @@
         <v>655</v>
       </c>
       <c r="B167" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C167" t="s">
         <v>656</v>
@@ -12547,7 +12547,7 @@
         <v>655</v>
       </c>
       <c r="B168" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C168" t="s">
         <v>658</v>
@@ -12582,7 +12582,7 @@
         <v>655</v>
       </c>
       <c r="B169" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C169" t="s">
         <v>662</v>
@@ -12629,7 +12629,7 @@
         <v>655</v>
       </c>
       <c r="B170" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C170" t="s">
         <v>664</v>
@@ -12676,7 +12676,7 @@
         <v>655</v>
       </c>
       <c r="B171" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C171" t="s">
         <v>666</v>
@@ -12723,7 +12723,7 @@
         <v>667</v>
       </c>
       <c r="B172" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C172" t="s">
         <v>668</v>
@@ -12758,7 +12758,7 @@
         <v>667</v>
       </c>
       <c r="B173" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C173" t="s">
         <v>670</v>
@@ -12805,7 +12805,7 @@
         <v>667</v>
       </c>
       <c r="B174" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C174" t="s">
         <v>672</v>
@@ -12849,7 +12849,7 @@
         <v>667</v>
       </c>
       <c r="B175" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C175" t="s">
         <v>677</v>
@@ -12893,7 +12893,7 @@
         <v>667</v>
       </c>
       <c r="B176" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C176" t="s">
         <v>679</v>
@@ -12969,15 +12969,15 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>1232</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1218</v>
@@ -13024,7 +13024,7 @@
         <v>1199</v>
       </c>
       <c r="B4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C4" t="s">
         <v>1217</v>
@@ -13065,7 +13065,7 @@
         <v>1199</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C5" t="s">
         <v>1216</v>
@@ -13112,7 +13112,7 @@
         <v>1199</v>
       </c>
       <c r="B6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C6" t="s">
         <v>1210</v>
@@ -13156,7 +13156,7 @@
         <v>1199</v>
       </c>
       <c r="B7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C7" t="s">
         <v>1210</v>
@@ -13200,7 +13200,7 @@
         <v>1199</v>
       </c>
       <c r="B8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C8" t="s">
         <v>1206</v>
@@ -13247,7 +13247,7 @@
         <v>1199</v>
       </c>
       <c r="B9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C9" t="s">
         <v>1206</v>
@@ -13294,7 +13294,7 @@
         <v>1199</v>
       </c>
       <c r="B10" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C10" t="s">
         <v>1198</v>
@@ -13341,7 +13341,7 @@
         <v>1177</v>
       </c>
       <c r="B11" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C11" t="s">
         <v>1193</v>
@@ -13385,7 +13385,7 @@
         <v>1177</v>
       </c>
       <c r="B12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C12" t="s">
         <v>1189</v>
@@ -13432,7 +13432,7 @@
         <v>1177</v>
       </c>
       <c r="B13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C13" t="s">
         <v>1187</v>
@@ -13476,7 +13476,7 @@
         <v>1177</v>
       </c>
       <c r="B14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C14" t="s">
         <v>1181</v>
@@ -13520,7 +13520,7 @@
         <v>1177</v>
       </c>
       <c r="B15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C15" t="s">
         <v>1176</v>
@@ -13567,7 +13567,7 @@
         <v>1164</v>
       </c>
       <c r="B16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C16" t="s">
         <v>1174</v>
@@ -13614,7 +13614,7 @@
         <v>1164</v>
       </c>
       <c r="B17" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C17" t="s">
         <v>1173</v>
@@ -13661,7 +13661,7 @@
         <v>1164</v>
       </c>
       <c r="B18" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C18" t="s">
         <v>1170</v>
@@ -13708,7 +13708,7 @@
         <v>1164</v>
       </c>
       <c r="B19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C19" t="s">
         <v>1167</v>
@@ -13755,7 +13755,7 @@
         <v>1164</v>
       </c>
       <c r="B20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C20" t="s">
         <v>1163</v>
@@ -13802,7 +13802,7 @@
         <v>1146</v>
       </c>
       <c r="B21" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C21" t="s">
         <v>1160</v>
@@ -13846,7 +13846,7 @@
         <v>1146</v>
       </c>
       <c r="B22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C22" t="s">
         <v>1155</v>
@@ -13890,7 +13890,7 @@
         <v>1146</v>
       </c>
       <c r="B23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C23" t="s">
         <v>1152</v>
@@ -13937,7 +13937,7 @@
         <v>1146</v>
       </c>
       <c r="B24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C24" t="s">
         <v>1147</v>
@@ -13984,7 +13984,7 @@
         <v>1146</v>
       </c>
       <c r="B25" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C25" t="s">
         <v>1145</v>
@@ -14031,7 +14031,7 @@
         <v>1135</v>
       </c>
       <c r="B26" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C26" t="s">
         <v>1142</v>
@@ -14078,7 +14078,7 @@
         <v>1135</v>
       </c>
       <c r="B27" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C27" t="s">
         <v>1141</v>
@@ -14122,7 +14122,7 @@
         <v>1135</v>
       </c>
       <c r="B28" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C28" t="s">
         <v>1139</v>
@@ -14169,7 +14169,7 @@
         <v>1135</v>
       </c>
       <c r="B29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C29" t="s">
         <v>1137</v>
@@ -14216,7 +14216,7 @@
         <v>1135</v>
       </c>
       <c r="B30" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C30" t="s">
         <v>1134</v>
@@ -14263,7 +14263,7 @@
         <v>1111</v>
       </c>
       <c r="B31" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C31" t="s">
         <v>1132</v>
@@ -14310,7 +14310,7 @@
         <v>1111</v>
       </c>
       <c r="B32" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C32" t="s">
         <v>1125</v>
@@ -14357,7 +14357,7 @@
         <v>1111</v>
       </c>
       <c r="B33" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C33" t="s">
         <v>1122</v>
@@ -14404,7 +14404,7 @@
         <v>1111</v>
       </c>
       <c r="B34" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C34" t="s">
         <v>1116</v>
@@ -14451,7 +14451,7 @@
         <v>1111</v>
       </c>
       <c r="B35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C35" t="s">
         <v>1110</v>
@@ -14498,7 +14498,7 @@
         <v>1088</v>
       </c>
       <c r="B36" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C36" t="s">
         <v>1104</v>
@@ -14545,7 +14545,7 @@
         <v>1088</v>
       </c>
       <c r="B37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C37" t="s">
         <v>1099</v>
@@ -14592,7 +14592,7 @@
         <v>1088</v>
       </c>
       <c r="B38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C38" t="s">
         <v>1092</v>
@@ -14639,7 +14639,7 @@
         <v>1088</v>
       </c>
       <c r="B39" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C39" t="s">
         <v>1090</v>
@@ -14683,7 +14683,7 @@
         <v>1088</v>
       </c>
       <c r="B40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C40" t="s">
         <v>1087</v>
@@ -14730,7 +14730,7 @@
         <v>1060</v>
       </c>
       <c r="B41" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C41" t="s">
         <v>1080</v>
@@ -14777,7 +14777,7 @@
         <v>1060</v>
       </c>
       <c r="B42" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C42" t="s">
         <v>1077</v>
@@ -14824,7 +14824,7 @@
         <v>1060</v>
       </c>
       <c r="B43" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C43" t="s">
         <v>1071</v>
@@ -14868,7 +14868,7 @@
         <v>1060</v>
       </c>
       <c r="B44" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C44" t="s">
         <v>1064</v>
@@ -14915,7 +14915,7 @@
         <v>1060</v>
       </c>
       <c r="B45" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C45" t="s">
         <v>1059</v>
@@ -14962,7 +14962,7 @@
         <v>1051</v>
       </c>
       <c r="B46" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C46" t="s">
         <v>1055</v>
@@ -15009,7 +15009,7 @@
         <v>1051</v>
       </c>
       <c r="B47" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C47" t="s">
         <v>1054</v>
@@ -15056,7 +15056,7 @@
         <v>1051</v>
       </c>
       <c r="B48" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C48" t="s">
         <v>1053</v>
@@ -15103,7 +15103,7 @@
         <v>1051</v>
       </c>
       <c r="B49" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C49" t="s">
         <v>1052</v>
@@ -15150,7 +15150,7 @@
         <v>1051</v>
       </c>
       <c r="B50" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C50" t="s">
         <v>1050</v>
@@ -15197,7 +15197,7 @@
         <v>1033</v>
       </c>
       <c r="B51" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C51" t="s">
         <v>1047</v>
@@ -15235,7 +15235,7 @@
         <v>1033</v>
       </c>
       <c r="B52" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C52" t="s">
         <v>1042</v>
@@ -15279,7 +15279,7 @@
         <v>1033</v>
       </c>
       <c r="B53" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C53" t="s">
         <v>1039</v>
@@ -15326,7 +15326,7 @@
         <v>1033</v>
       </c>
       <c r="B54" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C54" t="s">
         <v>1036</v>
@@ -15373,7 +15373,7 @@
         <v>1033</v>
       </c>
       <c r="B55" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C55" t="s">
         <v>1032</v>
@@ -15420,7 +15420,7 @@
         <v>1017</v>
       </c>
       <c r="B56" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C56" t="s">
         <v>1028</v>
@@ -15461,7 +15461,7 @@
         <v>1017</v>
       </c>
       <c r="B57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C57" t="s">
         <v>1027</v>
@@ -15508,7 +15508,7 @@
         <v>1017</v>
       </c>
       <c r="B58" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C58" t="s">
         <v>1021</v>
@@ -15549,7 +15549,7 @@
         <v>1017</v>
       </c>
       <c r="B59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C59" t="s">
         <v>1019</v>
@@ -15590,7 +15590,7 @@
         <v>1017</v>
       </c>
       <c r="B60" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C60" t="s">
         <v>1016</v>
@@ -15637,7 +15637,7 @@
         <v>1006</v>
       </c>
       <c r="B61" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C61" t="s">
         <v>1014</v>
@@ -15684,7 +15684,7 @@
         <v>1006</v>
       </c>
       <c r="B62" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C62" t="s">
         <v>1012</v>
@@ -15722,7 +15722,7 @@
         <v>1006</v>
       </c>
       <c r="B63" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C63" t="s">
         <v>1011</v>
@@ -15760,7 +15760,7 @@
         <v>1006</v>
       </c>
       <c r="B64" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C64" t="s">
         <v>1009</v>
@@ -15807,7 +15807,7 @@
         <v>1006</v>
       </c>
       <c r="B65" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C65" t="s">
         <v>1005</v>
@@ -15854,7 +15854,7 @@
         <v>988</v>
       </c>
       <c r="B66" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C66" t="s">
         <v>998</v>
@@ -15901,7 +15901,7 @@
         <v>988</v>
       </c>
       <c r="B67" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C67" t="s">
         <v>995</v>
@@ -15948,7 +15948,7 @@
         <v>988</v>
       </c>
       <c r="B68" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C68" t="s">
         <v>993</v>
@@ -15995,7 +15995,7 @@
         <v>988</v>
       </c>
       <c r="B69" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C69" t="s">
         <v>990</v>
@@ -16042,7 +16042,7 @@
         <v>988</v>
       </c>
       <c r="B70" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C70" t="s">
         <v>987</v>
@@ -16089,7 +16089,7 @@
         <v>977</v>
       </c>
       <c r="B71" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C71" t="s">
         <v>985</v>
@@ -16136,7 +16136,7 @@
         <v>977</v>
       </c>
       <c r="B72" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C72" t="s">
         <v>983</v>
@@ -16183,7 +16183,7 @@
         <v>977</v>
       </c>
       <c r="B73" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C73" t="s">
         <v>981</v>
@@ -16215,7 +16215,7 @@
         <v>977</v>
       </c>
       <c r="B74" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C74" t="s">
         <v>979</v>
@@ -16262,7 +16262,7 @@
         <v>977</v>
       </c>
       <c r="B75" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C75" t="s">
         <v>976</v>
@@ -16309,7 +16309,7 @@
         <v>964</v>
       </c>
       <c r="B76" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C76" t="s">
         <v>973</v>
@@ -16356,7 +16356,7 @@
         <v>964</v>
       </c>
       <c r="B77" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C77" t="s">
         <v>970</v>
@@ -16403,7 +16403,7 @@
         <v>964</v>
       </c>
       <c r="B78" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C78" t="s">
         <v>968</v>
@@ -16450,7 +16450,7 @@
         <v>964</v>
       </c>
       <c r="B79" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C79" t="s">
         <v>966</v>
@@ -16497,7 +16497,7 @@
         <v>964</v>
       </c>
       <c r="B80" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C80" t="s">
         <v>963</v>
@@ -16544,7 +16544,7 @@
         <v>953</v>
       </c>
       <c r="B81" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C81" t="s">
         <v>961</v>
@@ -16591,7 +16591,7 @@
         <v>953</v>
       </c>
       <c r="B82" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C82" t="s">
         <v>959</v>
@@ -16638,7 +16638,7 @@
         <v>953</v>
       </c>
       <c r="B83" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C83" t="s">
         <v>957</v>
@@ -16685,7 +16685,7 @@
         <v>953</v>
       </c>
       <c r="B84" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C84" t="s">
         <v>955</v>
@@ -16732,7 +16732,7 @@
         <v>953</v>
       </c>
       <c r="B85" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C85" t="s">
         <v>952</v>
@@ -16779,7 +16779,7 @@
         <v>943</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>950</v>
@@ -16826,7 +16826,7 @@
         <v>943</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>949</v>
@@ -16873,7 +16873,7 @@
         <v>943</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>356</v>
@@ -16920,7 +16920,7 @@
         <v>943</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>946</v>
@@ -16967,7 +16967,7 @@
         <v>943</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>942</v>
@@ -17014,7 +17014,7 @@
         <v>925</v>
       </c>
       <c r="B91" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C91" t="s">
         <v>938</v>
@@ -17061,7 +17061,7 @@
         <v>925</v>
       </c>
       <c r="B92" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C92" t="s">
         <v>934</v>
@@ -17102,7 +17102,7 @@
         <v>925</v>
       </c>
       <c r="B93" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C93" t="s">
         <v>932</v>
@@ -17149,7 +17149,7 @@
         <v>925</v>
       </c>
       <c r="B94" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C94" t="s">
         <v>930</v>
@@ -17190,7 +17190,7 @@
         <v>925</v>
       </c>
       <c r="B95" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C95" t="s">
         <v>924</v>
@@ -17237,7 +17237,7 @@
         <v>911</v>
       </c>
       <c r="B96" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C96" t="s">
         <v>921</v>
@@ -17284,7 +17284,7 @@
         <v>911</v>
       </c>
       <c r="B97" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C97" t="s">
         <v>920</v>
@@ -17331,7 +17331,7 @@
         <v>911</v>
       </c>
       <c r="B98" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C98" t="s">
         <v>916</v>
@@ -17378,7 +17378,7 @@
         <v>911</v>
       </c>
       <c r="B99" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C99" t="s">
         <v>915</v>
@@ -17425,7 +17425,7 @@
         <v>911</v>
       </c>
       <c r="B100" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C100" t="s">
         <v>910</v>
@@ -17472,7 +17472,7 @@
         <v>897</v>
       </c>
       <c r="B101" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C101" t="s">
         <v>905</v>
@@ -17519,7 +17519,7 @@
         <v>897</v>
       </c>
       <c r="B102" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C102" t="s">
         <v>903</v>
@@ -17566,7 +17566,7 @@
         <v>897</v>
       </c>
       <c r="B103" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C103" t="s">
         <v>901</v>
@@ -17607,7 +17607,7 @@
         <v>897</v>
       </c>
       <c r="B104" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C104" t="s">
         <v>899</v>
@@ -17654,7 +17654,7 @@
         <v>897</v>
       </c>
       <c r="B105" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C105" t="s">
         <v>896</v>
@@ -17701,7 +17701,7 @@
         <v>887</v>
       </c>
       <c r="B106" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C106" t="s">
         <v>894</v>
@@ -17748,7 +17748,7 @@
         <v>887</v>
       </c>
       <c r="B107" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C107" t="s">
         <v>892</v>
@@ -17789,7 +17789,7 @@
         <v>887</v>
       </c>
       <c r="B108" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C108" t="s">
         <v>890</v>
@@ -17836,7 +17836,7 @@
         <v>887</v>
       </c>
       <c r="B109" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C109" t="s">
         <v>888</v>
@@ -17883,7 +17883,7 @@
         <v>887</v>
       </c>
       <c r="B110" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C110" t="s">
         <v>886</v>
@@ -17930,7 +17930,7 @@
         <v>867</v>
       </c>
       <c r="B111" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C111" t="s">
         <v>884</v>
@@ -17977,7 +17977,7 @@
         <v>867</v>
       </c>
       <c r="B112" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C112" t="s">
         <v>881</v>
@@ -18024,7 +18024,7 @@
         <v>867</v>
       </c>
       <c r="B113" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C113" t="s">
         <v>873</v>
@@ -18071,7 +18071,7 @@
         <v>867</v>
       </c>
       <c r="B114" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C114" t="s">
         <v>870</v>
@@ -18118,7 +18118,7 @@
         <v>867</v>
       </c>
       <c r="B115" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C115" t="s">
         <v>866</v>
@@ -18165,7 +18165,7 @@
         <v>844</v>
       </c>
       <c r="B116" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C116" t="s">
         <v>861</v>
@@ -18212,7 +18212,7 @@
         <v>844</v>
       </c>
       <c r="B117" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C117" t="s">
         <v>858</v>
@@ -18259,7 +18259,7 @@
         <v>844</v>
       </c>
       <c r="B118" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C118" t="s">
         <v>851</v>
@@ -18306,7 +18306,7 @@
         <v>844</v>
       </c>
       <c r="B119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C119" t="s">
         <v>849</v>
@@ -18353,7 +18353,7 @@
         <v>844</v>
       </c>
       <c r="B120" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C120" t="s">
         <v>843</v>
@@ -18397,7 +18397,7 @@
         <v>822</v>
       </c>
       <c r="B121" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C121" t="s">
         <v>840</v>
@@ -18444,7 +18444,7 @@
         <v>822</v>
       </c>
       <c r="B122" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C122" t="s">
         <v>832</v>
@@ -18491,7 +18491,7 @@
         <v>822</v>
       </c>
       <c r="B123" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C123" t="s">
         <v>827</v>
@@ -18535,7 +18535,7 @@
         <v>822</v>
       </c>
       <c r="B124" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C124" t="s">
         <v>825</v>
@@ -18582,7 +18582,7 @@
         <v>822</v>
       </c>
       <c r="B125" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C125" t="s">
         <v>821</v>
@@ -18629,7 +18629,7 @@
         <v>805</v>
       </c>
       <c r="B126" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C126" t="s">
         <v>817</v>
@@ -18676,7 +18676,7 @@
         <v>805</v>
       </c>
       <c r="B127" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C127" t="s">
         <v>814</v>
@@ -18723,7 +18723,7 @@
         <v>805</v>
       </c>
       <c r="B128" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C128" t="s">
         <v>814</v>
@@ -18770,7 +18770,7 @@
         <v>805</v>
       </c>
       <c r="B129" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C129" t="s">
         <v>811</v>
@@ -18817,7 +18817,7 @@
         <v>805</v>
       </c>
       <c r="B130" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C130" t="s">
         <v>811</v>
@@ -18864,7 +18864,7 @@
         <v>805</v>
       </c>
       <c r="B131" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C131" t="s">
         <v>808</v>
@@ -18911,7 +18911,7 @@
         <v>805</v>
       </c>
       <c r="B132" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C132" t="s">
         <v>808</v>
@@ -18958,7 +18958,7 @@
         <v>805</v>
       </c>
       <c r="B133" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C133" t="s">
         <v>804</v>
@@ -19005,7 +19005,7 @@
         <v>805</v>
       </c>
       <c r="B134" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C134" t="s">
         <v>804</v>
@@ -19052,7 +19052,7 @@
         <v>792</v>
       </c>
       <c r="B135" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C135" t="s">
         <v>798</v>
@@ -19093,7 +19093,7 @@
         <v>792</v>
       </c>
       <c r="B136" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C136" t="s">
         <v>796</v>
@@ -19137,7 +19137,7 @@
         <v>792</v>
       </c>
       <c r="B137" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C137" t="s">
         <v>795</v>
@@ -19181,7 +19181,7 @@
         <v>792</v>
       </c>
       <c r="B138" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C138" t="s">
         <v>794</v>
@@ -19225,7 +19225,7 @@
         <v>792</v>
       </c>
       <c r="B139" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C139" t="s">
         <v>791</v>
@@ -19272,7 +19272,7 @@
         <v>773</v>
       </c>
       <c r="B140" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C140" t="s">
         <v>787</v>
@@ -19316,7 +19316,7 @@
         <v>773</v>
       </c>
       <c r="B141" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C141" t="s">
         <v>784</v>
@@ -19360,7 +19360,7 @@
         <v>773</v>
       </c>
       <c r="B142" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C142" t="s">
         <v>783</v>
@@ -19401,7 +19401,7 @@
         <v>773</v>
       </c>
       <c r="B143" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C143" t="s">
         <v>779</v>
@@ -19445,7 +19445,7 @@
         <v>773</v>
       </c>
       <c r="B144" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C144" t="s">
         <v>772</v>
@@ -19492,7 +19492,7 @@
         <v>751</v>
       </c>
       <c r="B145" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C145" t="s">
         <v>765</v>
@@ -19539,7 +19539,7 @@
         <v>751</v>
       </c>
       <c r="B146" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C146" t="s">
         <v>761</v>
@@ -19586,7 +19586,7 @@
         <v>751</v>
       </c>
       <c r="B147" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C147" t="s">
         <v>756</v>
@@ -19630,7 +19630,7 @@
         <v>751</v>
       </c>
       <c r="B148" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C148" t="s">
         <v>754</v>
@@ -19674,7 +19674,7 @@
         <v>751</v>
       </c>
       <c r="B149" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C149" t="s">
         <v>750</v>
@@ -19721,7 +19721,7 @@
         <v>734</v>
       </c>
       <c r="B150" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C150" t="s">
         <v>743</v>
@@ -19768,7 +19768,7 @@
         <v>734</v>
       </c>
       <c r="B151" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C151" t="s">
         <v>740</v>
@@ -19815,7 +19815,7 @@
         <v>734</v>
       </c>
       <c r="B152" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C152" t="s">
         <v>738</v>
@@ -19862,7 +19862,7 @@
         <v>734</v>
       </c>
       <c r="B153" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C153" t="s">
         <v>736</v>
@@ -19909,7 +19909,7 @@
         <v>734</v>
       </c>
       <c r="B154" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C154" t="s">
         <v>733</v>
@@ -19956,7 +19956,7 @@
         <v>720</v>
       </c>
       <c r="B155" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C155" t="s">
         <v>731</v>
@@ -20003,7 +20003,7 @@
         <v>720</v>
       </c>
       <c r="B156" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C156" t="s">
         <v>731</v>
@@ -20050,7 +20050,7 @@
         <v>720</v>
       </c>
       <c r="B157" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C157" t="s">
         <v>731</v>
@@ -20097,7 +20097,7 @@
         <v>720</v>
       </c>
       <c r="B158" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C158" t="s">
         <v>731</v>
@@ -20144,7 +20144,7 @@
         <v>720</v>
       </c>
       <c r="B159" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C159" t="s">
         <v>731</v>
@@ -20191,7 +20191,7 @@
         <v>720</v>
       </c>
       <c r="B160" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C160" t="s">
         <v>731</v>
@@ -20238,7 +20238,7 @@
         <v>720</v>
       </c>
       <c r="B161" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C161" t="s">
         <v>731</v>
@@ -20285,7 +20285,7 @@
         <v>720</v>
       </c>
       <c r="B162" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C162" t="s">
         <v>730</v>
@@ -20332,7 +20332,7 @@
         <v>720</v>
       </c>
       <c r="B163" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C163" t="s">
         <v>730</v>
@@ -20379,7 +20379,7 @@
         <v>720</v>
       </c>
       <c r="B164" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C164" t="s">
         <v>730</v>
@@ -20426,7 +20426,7 @@
         <v>720</v>
       </c>
       <c r="B165" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C165" t="s">
         <v>730</v>
@@ -20473,7 +20473,7 @@
         <v>720</v>
       </c>
       <c r="B166" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C166" t="s">
         <v>730</v>
@@ -20520,7 +20520,7 @@
         <v>720</v>
       </c>
       <c r="B167" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C167" t="s">
         <v>730</v>
@@ -20567,7 +20567,7 @@
         <v>720</v>
       </c>
       <c r="B168" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C168" t="s">
         <v>730</v>
@@ -20614,7 +20614,7 @@
         <v>720</v>
       </c>
       <c r="B169" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C169" t="s">
         <v>730</v>
@@ -20661,7 +20661,7 @@
         <v>720</v>
       </c>
       <c r="B170" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C170" t="s">
         <v>730</v>
@@ -20708,7 +20708,7 @@
         <v>720</v>
       </c>
       <c r="B171" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C171" t="s">
         <v>729</v>
@@ -20755,7 +20755,7 @@
         <v>720</v>
       </c>
       <c r="B172" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C172" t="s">
         <v>729</v>
@@ -20802,7 +20802,7 @@
         <v>720</v>
       </c>
       <c r="B173" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C173" t="s">
         <v>729</v>
@@ -20849,7 +20849,7 @@
         <v>720</v>
       </c>
       <c r="B174" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C174" t="s">
         <v>729</v>
@@ -20896,7 +20896,7 @@
         <v>720</v>
       </c>
       <c r="B175" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C175" t="s">
         <v>723</v>
@@ -20943,7 +20943,7 @@
         <v>720</v>
       </c>
       <c r="B176" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C176" t="s">
         <v>723</v>
@@ -20990,7 +20990,7 @@
         <v>720</v>
       </c>
       <c r="B177" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C177" t="s">
         <v>723</v>
@@ -21037,7 +21037,7 @@
         <v>720</v>
       </c>
       <c r="B178" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C178" t="s">
         <v>723</v>
@@ -21084,7 +21084,7 @@
         <v>720</v>
       </c>
       <c r="B179" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C179" t="s">
         <v>723</v>
@@ -21131,7 +21131,7 @@
         <v>720</v>
       </c>
       <c r="B180" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C180" t="s">
         <v>723</v>
@@ -21178,7 +21178,7 @@
         <v>720</v>
       </c>
       <c r="B181" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C181" t="s">
         <v>723</v>
@@ -21225,7 +21225,7 @@
         <v>720</v>
       </c>
       <c r="B182" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C182" t="s">
         <v>719</v>
@@ -21272,7 +21272,7 @@
         <v>720</v>
       </c>
       <c r="B183" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C183" t="s">
         <v>719</v>
@@ -21319,7 +21319,7 @@
         <v>720</v>
       </c>
       <c r="B184" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C184" t="s">
         <v>719</v>
@@ -21366,7 +21366,7 @@
         <v>720</v>
       </c>
       <c r="B185" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C185" t="s">
         <v>719</v>
@@ -21413,7 +21413,7 @@
         <v>720</v>
       </c>
       <c r="B186" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C186" t="s">
         <v>719</v>
@@ -21460,7 +21460,7 @@
         <v>720</v>
       </c>
       <c r="B187" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C187" t="s">
         <v>719</v>
@@ -21507,7 +21507,7 @@
         <v>720</v>
       </c>
       <c r="B188" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C188" t="s">
         <v>719</v>
@@ -21554,7 +21554,7 @@
         <v>705</v>
       </c>
       <c r="B189" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C189" t="s">
         <v>713</v>
@@ -21601,7 +21601,7 @@
         <v>705</v>
       </c>
       <c r="B190" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C190" t="s">
         <v>711</v>
@@ -21648,7 +21648,7 @@
         <v>705</v>
       </c>
       <c r="B191" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C191" t="s">
         <v>709</v>
@@ -21695,7 +21695,7 @@
         <v>705</v>
       </c>
       <c r="B192" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C192" t="s">
         <v>707</v>
@@ -21742,7 +21742,7 @@
         <v>705</v>
       </c>
       <c r="B193" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C193" t="s">
         <v>704</v>
@@ -21783,7 +21783,7 @@
         <v>687</v>
       </c>
       <c r="B194" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C194" t="s">
         <v>702</v>
@@ -21830,7 +21830,7 @@
         <v>687</v>
       </c>
       <c r="B195" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C195" t="s">
         <v>695</v>
@@ -21874,7 +21874,7 @@
         <v>687</v>
       </c>
       <c r="B196" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C196" t="s">
         <v>692</v>
@@ -21918,7 +21918,7 @@
         <v>687</v>
       </c>
       <c r="B197" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C197" t="s">
         <v>689</v>
@@ -21956,7 +21956,7 @@
         <v>687</v>
       </c>
       <c r="B198" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C198" t="s">
         <v>686</v>
